--- a/Ritgegevens_FordFocus.xlsx
+++ b/Ritgegevens_FordFocus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51082099-C51C-4F82-84DF-44FC0FAE61AF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B958B0-0E0D-497E-BC19-E4CE3828A2AC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="14220" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$501</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -679,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="K159" sqref="K159"/>
+    <sheetView tabSelected="1" topLeftCell="C315" workbookViewId="0">
+      <selection activeCell="G274" sqref="G274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9005,7 +9011,7 @@
         <v>21776</v>
       </c>
       <c r="G270" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I270" s="15">
         <f t="shared" si="21"/>
@@ -9013,11 +9019,11 @@
       </c>
       <c r="J270" s="15">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K270" s="15">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.3">
@@ -9030,7 +9036,7 @@
         <v>21777</v>
       </c>
       <c r="G271" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I271" s="15">
         <f t="shared" si="21"/>
@@ -9038,11 +9044,11 @@
       </c>
       <c r="J271" s="15">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K271" s="15">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.3">
@@ -9055,7 +9061,7 @@
         <v>21783</v>
       </c>
       <c r="G272" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I272" s="15">
         <f t="shared" si="21"/>
@@ -9063,11 +9069,11 @@
       </c>
       <c r="J272" s="15">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K272" s="15">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.3">
@@ -9081,7 +9087,7 @@
       </c>
       <c r="E273" s="9"/>
       <c r="G273" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I273" s="15">
         <f t="shared" si="21"/>
@@ -9089,11 +9095,11 @@
       </c>
       <c r="J273" s="15">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K273" s="15">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.3">
@@ -9209,7 +9215,7 @@
         <v>22224</v>
       </c>
       <c r="G278" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I278" s="15">
         <f t="shared" si="21"/>
@@ -9217,11 +9223,11 @@
       </c>
       <c r="J278" s="6">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K278" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.3">
@@ -9234,7 +9240,7 @@
         <v>22232</v>
       </c>
       <c r="G279" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I279" s="15">
         <f t="shared" si="21"/>
@@ -9242,11 +9248,11 @@
       </c>
       <c r="J279" s="15">
         <f t="shared" si="19"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K279" s="15">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.3">
@@ -9259,7 +9265,7 @@
         <v>22237</v>
       </c>
       <c r="G280" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I280" s="15">
         <f t="shared" si="21"/>
@@ -9267,11 +9273,11 @@
       </c>
       <c r="J280" s="15">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K280" s="15">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.3">
@@ -9284,7 +9290,7 @@
         <v>22238</v>
       </c>
       <c r="G281" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I281" s="15">
         <f t="shared" si="21"/>
@@ -9292,11 +9298,11 @@
       </c>
       <c r="J281" s="15">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K281" s="15">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.3">
@@ -9309,7 +9315,7 @@
         <v>22243</v>
       </c>
       <c r="G282" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I282" s="15">
         <f t="shared" si="21"/>
@@ -9317,11 +9323,11 @@
       </c>
       <c r="J282" s="15">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K282" s="15">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.3">
@@ -9334,7 +9340,7 @@
         <v>22246</v>
       </c>
       <c r="G283" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I283" s="15">
         <f t="shared" si="21"/>
@@ -9342,11 +9348,11 @@
       </c>
       <c r="J283" s="15">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K283" s="15">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.3">
@@ -9359,7 +9365,7 @@
         <v>22252</v>
       </c>
       <c r="G284" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I284" s="15">
         <f t="shared" si="21"/>
@@ -9367,11 +9373,11 @@
       </c>
       <c r="J284" s="6">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K284" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.3">
@@ -9484,7 +9490,7 @@
         <v>22690</v>
       </c>
       <c r="G289" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I289" s="15">
         <f t="shared" si="21"/>
@@ -9492,11 +9498,11 @@
       </c>
       <c r="J289" s="15">
         <f t="shared" si="23"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K289" s="15">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.3">
@@ -9509,7 +9515,7 @@
         <v>22698</v>
       </c>
       <c r="G290" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I290" s="15">
         <f t="shared" si="21"/>
@@ -9517,11 +9523,11 @@
       </c>
       <c r="J290" s="15">
         <f t="shared" si="23"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K290" s="15">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.3">
@@ -9534,7 +9540,7 @@
         <v>22707</v>
       </c>
       <c r="G291" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I291" s="15">
         <f t="shared" si="21"/>
@@ -9542,11 +9548,11 @@
       </c>
       <c r="J291" s="15">
         <f t="shared" si="23"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K291" s="15">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.3">
@@ -9959,7 +9965,7 @@
         <v>24151</v>
       </c>
       <c r="G308" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I308" s="15">
         <f t="shared" si="21"/>
@@ -9967,11 +9973,11 @@
       </c>
       <c r="J308" s="15">
         <f t="shared" si="23"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K308" s="15">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.3">
@@ -9984,7 +9990,7 @@
         <v>24168</v>
       </c>
       <c r="G309" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I309" s="15">
         <f t="shared" si="21"/>
@@ -9992,11 +9998,11 @@
       </c>
       <c r="J309" s="15">
         <f t="shared" si="23"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K309" s="15">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.3">
@@ -10009,7 +10015,7 @@
         <v>24176</v>
       </c>
       <c r="G310" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I310" s="15">
         <f t="shared" si="21"/>
@@ -10017,11 +10023,11 @@
       </c>
       <c r="J310" s="15">
         <f t="shared" si="23"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K310" s="15">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.3">
@@ -10034,7 +10040,7 @@
         <v>24184</v>
       </c>
       <c r="G311" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I311" s="15">
         <f t="shared" si="21"/>
@@ -10042,11 +10048,11 @@
       </c>
       <c r="J311" s="6">
         <f t="shared" si="23"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K311" s="6">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.3">
